--- a/www/IndicatorsPerCountry/Egypt_TotalNumberofSheep_TerritorialRef_1979_2012_CCode_818.xlsx
+++ b/www/IndicatorsPerCountry/Egypt_TotalNumberofSheep_TerritorialRef_1979_2012_CCode_818.xlsx
@@ -177,13 +177,13 @@
     <t>Klein Goldewijk, Kees (2015). Total Number of Sheep. http://hdl.handle.net/10622/W7GOD6, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_W7GOD6.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_W7GOD6.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_W7GOD6.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_W7GOD6.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_W7GOD6.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_W7GOD6.bib</t>
   </si>
 </sst>
 </file>
